--- a/uploads/emp.xlsx
+++ b/uploads/emp.xlsx
@@ -41,26 +41,6 @@
             <text:p>divya</text:p>
           </table:table-cell>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>shilpa</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>raj</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>nivi</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>satnam</text:p>
-          </table:table-cell>
-        </table:table-row>
       </table:table>
       <table:named-expressions/>
     </office:spreadsheet>
@@ -72,11 +52,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.2">
   <office:meta>
     <meta:creation-date>2020-12-15T02:16:45.363487597</meta:creation-date>
-    <dc:date>2020-12-16T11:24:57.952491256</dc:date>
-    <meta:editing-duration>PT8M25S</meta:editing-duration>
-    <meta:editing-cycles>8</meta:editing-cycles>
+    <dc:date>2020-12-16T20:10:16.043021483</dc:date>
+    <meta:editing-duration>PT11M10S</meta:editing-duration>
+    <meta:editing-cycles>10</meta:editing-cycles>
     <meta:generator>LibreOffice/6.4.4.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="5" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="1" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -88,14 +68,14 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">2257</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">2257</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">451</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
               <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">4</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -305,7 +285,7 @@
           <text:p>
             <text:date style:data-style-name="N2" text:date-value="2020-12-16">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="11:24:41.346800028">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="20:10:00.890861966">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/uploads/emp.xlsx
+++ b/uploads/emp.xlsx
@@ -41,6 +41,16 @@
             <text:p>divya</text:p>
           </table:table-cell>
         </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>himanshu</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>atul</text:p>
+          </table:table-cell>
+        </table:table-row>
       </table:table>
       <table:named-expressions/>
     </office:spreadsheet>
@@ -52,11 +62,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.2">
   <office:meta>
     <meta:creation-date>2020-12-15T02:16:45.363487597</meta:creation-date>
-    <dc:date>2020-12-16T20:10:16.043021483</dc:date>
-    <meta:editing-duration>PT11M10S</meta:editing-duration>
-    <meta:editing-cycles>10</meta:editing-cycles>
+    <dc:date>2020-12-17T00:49:11.162105280</dc:date>
+    <meta:editing-duration>PT11M27S</meta:editing-duration>
+    <meta:editing-cycles>11</meta:editing-cycles>
     <meta:generator>LibreOffice/6.4.4.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="1" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="3" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -68,14 +78,14 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">2257</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">451</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">1354</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
               <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">5</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">8</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -283,9 +293,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2020-12-16">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2020-12-17">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="20:10:00.890861966">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="01:16:32.838779121">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
